--- a/test.xlsx
+++ b/test.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,178 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23720" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
-  <si>
-    <t>AK11(LX)</t>
-  </si>
-  <si>
-    <t>PAK11-LXCCB-SL02</t>
-  </si>
-  <si>
-    <t>50PCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>IMEI</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>350200692534326</t>
-  </si>
-  <si>
-    <t>8944500102198236390</t>
-  </si>
-  <si>
-    <t>350200692525597</t>
-  </si>
-  <si>
-    <t>8944500102198236036</t>
-  </si>
-  <si>
-    <t>350200692501960</t>
-  </si>
-  <si>
-    <t>8944500102198236010</t>
-  </si>
-  <si>
-    <t>350200692527320</t>
-  </si>
-  <si>
-    <t>8944500102198236002</t>
-  </si>
-  <si>
-    <t>350200692501952</t>
-  </si>
-  <si>
-    <t>8944500102198236028</t>
-  </si>
-  <si>
-    <t>350200692509054</t>
-  </si>
-  <si>
-    <t>8944500102198236051</t>
-  </si>
-  <si>
-    <t>V.2.00B211900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AX11(MX)</t>
   </si>
   <si>
     <t>PAX11-MXNXB-SL02</t>
   </si>
   <si>
-    <t>200PCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>355803214301028</t>
   </si>
   <si>
-    <t>8944501201210685334</t>
-  </si>
-  <si>
     <t>355803213299900</t>
   </si>
   <si>
-    <t>8944501201210685375</t>
-  </si>
-  <si>
     <t>355803214300947</t>
   </si>
   <si>
-    <t>8944501201210685326</t>
-  </si>
-  <si>
     <t>355803214300350</t>
   </si>
   <si>
-    <t>8944501201210685383</t>
-  </si>
-  <si>
     <t>355803213306028</t>
   </si>
   <si>
-    <t>8944501201210671284</t>
-  </si>
-  <si>
     <t>355803213301110</t>
   </si>
   <si>
-    <t>8944501201210671300</t>
-  </si>
-  <si>
     <t>355803214289124</t>
   </si>
   <si>
-    <t>8944501201210671144</t>
-  </si>
-  <si>
     <t>355803214309021</t>
   </si>
   <si>
-    <t>8944501201210671466</t>
-  </si>
-  <si>
-    <t>NO.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.00B212200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AX11.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Manufacture Model</t>
+  </si>
+  <si>
+    <t>Manufacture Option</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>AX11</t>
+  </si>
+  <si>
+    <t>MXNXB</t>
+  </si>
+  <si>
+    <t>SL02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,12 +134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,23 +147,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="41">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -272,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,213 +564,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" activeCellId="1" sqref="F18 G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -732,9 +825,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23720" windowHeight="13920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="23724" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,13 +82,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -97,7 +97,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,14 +105,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +120,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,47 +222,47 @@
     </xf>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="39" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -566,27 +566,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,22 +603,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -638,20 +639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" activeCellId="1" sqref="F18 G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -665,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -679,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -693,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -707,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -721,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -735,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -749,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -763,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -777,31 +778,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -825,7 +826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
